--- a/02-intermediate/999-hands-on-subtotal.xlsx
+++ b/02-intermediate/999-hands-on-subtotal.xlsx
@@ -80,8 +80,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
-    <numFmt numFmtId="167" formatCode="[$-409]d\-mmm;@"/>
-    <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm;@"/>
+    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -650,12 +650,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1042,29 +1042,29 @@
     <row r="2" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2">
         <f ca="1">RANDBETWEEN(1,5)</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B2" t="str">
         <f ca="1">VLOOKUP(A2,$J$3:$K$7,2)</f>
-        <v>Skiing</v>
+        <v>Skateboarding</v>
       </c>
       <c r="C2" s="1">
         <f ca="1">RANDBETWEEN(100,700)</f>
-        <v>507</v>
+        <v>693</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3">
         <f t="shared" ref="A3:A66" ca="1" si="0">RANDBETWEEN(1,5)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" t="str">
         <f t="shared" ref="B3:B66" ca="1" si="1">VLOOKUP(A3,$J$3:$K$7,2)</f>
-        <v>Surfing</v>
+        <v>Swimming</v>
       </c>
       <c r="C3" s="1">
         <f t="shared" ref="C3:C66" ca="1" si="2">RANDBETWEEN(100,700)</f>
-        <v>295</v>
+        <v>155</v>
       </c>
       <c r="J3" s="2">
         <v>1</v>
@@ -1076,15 +1076,15 @@
     <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Swimming</v>
+        <v>Skateboarding</v>
       </c>
       <c r="C4" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>321</v>
+        <v>670</v>
       </c>
       <c r="J4" s="4">
         <v>2</v>
@@ -1096,15 +1096,15 @@
     <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Windsurfing</v>
+        <v>Skateboarding</v>
       </c>
       <c r="C5" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>154</v>
+        <v>469</v>
       </c>
       <c r="J5" s="4">
         <v>3</v>
@@ -1116,15 +1116,15 @@
     <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Windsurfing</v>
+        <v>Surfing</v>
       </c>
       <c r="C6" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>698</v>
+        <v>689</v>
       </c>
       <c r="J6" s="4">
         <v>4</v>
@@ -1136,15 +1136,15 @@
     <row r="7" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A7">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B7" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Surfing</v>
+        <v>Skiing</v>
       </c>
       <c r="C7" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>519</v>
+        <v>352</v>
       </c>
       <c r="J7" s="6">
         <v>5</v>
@@ -1156,85 +1156,85 @@
     <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A8">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B8" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Swimming</v>
+        <v>Surfing</v>
       </c>
       <c r="C8" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>578</v>
+        <v>534</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A9">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Skiing</v>
+        <v>Windsurfing</v>
       </c>
       <c r="C9" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>290</v>
+        <v>168</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A10">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B10" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Swimming</v>
+        <v>Skateboarding</v>
       </c>
       <c r="C10" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>594</v>
+        <v>682</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A11">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B11" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Skateboarding</v>
+        <v>Windsurfing</v>
       </c>
       <c r="C11" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>690</v>
+        <v>395</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A12">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B12" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Skiing</v>
+        <v>Windsurfing</v>
       </c>
       <c r="C12" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>623</v>
+        <v>431</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A13">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B13" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Surfing</v>
+        <v>Windsurfing</v>
       </c>
       <c r="C13" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>267</v>
+        <v>211</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.45">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="C14" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>665</v>
+        <v>551</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.45">
@@ -1262,21 +1262,21 @@
       </c>
       <c r="C15" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>356</v>
+        <v>249</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A16">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B16" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Skateboarding</v>
+        <v>Surfing</v>
       </c>
       <c r="C16" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>205</v>
+        <v>400</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.45">
@@ -1290,7 +1290,7 @@
       </c>
       <c r="C17" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>328</v>
+        <v>346</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.45">
@@ -1304,49 +1304,49 @@
       </c>
       <c r="C18" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>696</v>
+        <v>556</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A19">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B19" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Surfing</v>
+        <v>Skiing</v>
       </c>
       <c r="C19" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>670</v>
+        <v>112</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A20">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B20" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Windsurfing</v>
+        <v>Skateboarding</v>
       </c>
       <c r="C20" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>387</v>
+        <v>123</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A21">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B21" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Skiing</v>
+        <v>Surfing</v>
       </c>
       <c r="C21" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>645</v>
+        <v>279</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.45">
@@ -1360,63 +1360,63 @@
       </c>
       <c r="C22" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>274</v>
+        <v>539</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A23">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B23" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Skateboarding</v>
+        <v>Surfing</v>
       </c>
       <c r="C23" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>537</v>
+        <v>455</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A24">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B24" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Skateboarding</v>
+        <v>Windsurfing</v>
       </c>
       <c r="C24" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>685</v>
+        <v>629</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A25">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B25" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Swimming</v>
+        <v>Surfing</v>
       </c>
       <c r="C25" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>354</v>
+        <v>559</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A26">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B26" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Windsurfing</v>
+        <v>Skiing</v>
       </c>
       <c r="C26" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>513</v>
+        <v>127</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.45">
@@ -1430,105 +1430,105 @@
       </c>
       <c r="C27" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>177</v>
+        <v>218</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A28">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B28" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Skiing</v>
+        <v>Skateboarding</v>
       </c>
       <c r="C28" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>416</v>
+        <v>626</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A29">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B29" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Surfing</v>
+        <v>Windsurfing</v>
       </c>
       <c r="C29" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>393</v>
+        <v>328</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A30">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Skiing</v>
+        <v>Windsurfing</v>
       </c>
       <c r="C30" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>159</v>
+        <v>339</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A31">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B31" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Swimming</v>
+        <v>Skateboarding</v>
       </c>
       <c r="C31" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>677</v>
+        <v>304</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A32">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B32" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Skateboarding</v>
+        <v>Surfing</v>
       </c>
       <c r="C32" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>612</v>
+        <v>291</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A33">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B33" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Swimming</v>
+        <v>Surfing</v>
       </c>
       <c r="C33" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>699</v>
+        <v>127</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A34">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B34" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Windsurfing</v>
+        <v>Skiing</v>
       </c>
       <c r="C34" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>670</v>
+        <v>596</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.45">
@@ -1542,147 +1542,147 @@
       </c>
       <c r="C35" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>150</v>
+        <v>495</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A36">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B36" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Windsurfing</v>
+        <v>Skiing</v>
       </c>
       <c r="C36" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>527</v>
+        <v>277</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A37">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B37" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Skiing</v>
+        <v>Skateboarding</v>
       </c>
       <c r="C37" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>487</v>
+        <v>676</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A38">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B38" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Skiing</v>
+        <v>Skateboarding</v>
       </c>
       <c r="C38" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>159</v>
+        <v>470</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A39">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B39" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Windsurfing</v>
+        <v>Skiing</v>
       </c>
       <c r="C39" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>301</v>
+        <v>126</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A40">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B40" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Windsurfing</v>
+        <v>Surfing</v>
       </c>
       <c r="C40" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>373</v>
+        <v>449</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A41">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B41" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Windsurfing</v>
+        <v>Skiing</v>
       </c>
       <c r="C41" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>340</v>
+        <v>575</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A42">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B42" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Skateboarding</v>
+        <v>Surfing</v>
       </c>
       <c r="C42" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>660</v>
+        <v>567</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A43">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B43" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Surfing</v>
+        <v>Windsurfing</v>
       </c>
       <c r="C43" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>398</v>
+        <v>462</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A44">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B44" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Windsurfing</v>
+        <v>Skateboarding</v>
       </c>
       <c r="C44" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>522</v>
+        <v>592</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A45">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B45" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Swimming</v>
+        <v>Skateboarding</v>
       </c>
       <c r="C45" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>610</v>
+        <v>235</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.45">
@@ -1696,49 +1696,49 @@
       </c>
       <c r="C46" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>542</v>
+        <v>381</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A47">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B47" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Skateboarding</v>
+        <v>Windsurfing</v>
       </c>
       <c r="C47" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>317</v>
+        <v>130</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A48">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B48" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Windsurfing</v>
+        <v>Swimming</v>
       </c>
       <c r="C48" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>569</v>
+        <v>609</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A49">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B49" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Windsurfing</v>
+        <v>Skateboarding</v>
       </c>
       <c r="C49" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>338</v>
+        <v>650</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.45">
@@ -1752,7 +1752,7 @@
       </c>
       <c r="C50" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>691</v>
+        <v>267</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.45">
@@ -1766,63 +1766,63 @@
       </c>
       <c r="C51" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>153</v>
+        <v>500</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A52">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B52" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Swimming</v>
+        <v>Skiing</v>
       </c>
       <c r="C52" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>535</v>
+        <v>678</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A53">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B53" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Surfing</v>
+        <v>Skiing</v>
       </c>
       <c r="C53" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>679</v>
+        <v>320</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A54">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B54" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Windsurfing</v>
+        <v>Skateboarding</v>
       </c>
       <c r="C54" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>121</v>
+        <v>280</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A55">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B55" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Skateboarding</v>
+        <v>Skiing</v>
       </c>
       <c r="C55" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>305</v>
+        <v>530</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.45">
@@ -1836,49 +1836,49 @@
       </c>
       <c r="C56" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>223</v>
+        <v>358</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A57">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B57" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Surfing</v>
+        <v>Skateboarding</v>
       </c>
       <c r="C57" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>112</v>
+        <v>287</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A58">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B58" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Windsurfing</v>
+        <v>Surfing</v>
       </c>
       <c r="C58" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>537</v>
+        <v>551</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A59">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B59" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Swimming</v>
+        <v>Skateboarding</v>
       </c>
       <c r="C59" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>692</v>
+        <v>218</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.45">
@@ -1892,7 +1892,7 @@
       </c>
       <c r="C60" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>370</v>
+        <v>533</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.45">
@@ -1906,161 +1906,161 @@
       </c>
       <c r="C61" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>190</v>
+        <v>393</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A62">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B62" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Windsurfing</v>
+        <v>Skateboarding</v>
       </c>
       <c r="C62" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>336</v>
+        <v>374</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A63">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B63" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Skiing</v>
+        <v>Surfing</v>
       </c>
       <c r="C63" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>204</v>
+        <v>307</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A64">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B64" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Skateboarding</v>
+        <v>Surfing</v>
       </c>
       <c r="C64" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>657</v>
+        <v>637</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A65">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B65" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Skiing</v>
+        <v>Skateboarding</v>
       </c>
       <c r="C65" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>591</v>
+        <v>689</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A66">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B66" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Swimming</v>
+        <v>Windsurfing</v>
       </c>
       <c r="C66" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>495</v>
+        <v>385</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A67">
         <f t="shared" ref="A67:A101" ca="1" si="3">RANDBETWEEN(1,5)</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B67" t="str">
         <f t="shared" ref="B67:B101" ca="1" si="4">VLOOKUP(A67,$J$3:$K$7,2)</f>
-        <v>Skateboarding</v>
+        <v>Surfing</v>
       </c>
       <c r="C67" s="1">
         <f t="shared" ref="C67:C101" ca="1" si="5">RANDBETWEEN(100,700)</f>
-        <v>397</v>
+        <v>417</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A68">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B68" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Swimming</v>
+        <v>Skateboarding</v>
       </c>
       <c r="C68" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>594</v>
+        <v>676</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A69">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B69" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Windsurfing</v>
+        <v>Surfing</v>
       </c>
       <c r="C69" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>375</v>
+        <v>667</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A70">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B70" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Swimming</v>
+        <v>Windsurfing</v>
       </c>
       <c r="C70" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>480</v>
+        <v>239</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A71">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B71" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Swimming</v>
+        <v>Skateboarding</v>
       </c>
       <c r="C71" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>385</v>
+        <v>481</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A72">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B72" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Skiing</v>
+        <v>Swimming</v>
       </c>
       <c r="C72" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>120</v>
+        <v>268</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.45">
@@ -2074,21 +2074,21 @@
       </c>
       <c r="C73" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>570</v>
+        <v>525</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A74">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B74" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Skateboarding</v>
+        <v>Surfing</v>
       </c>
       <c r="C74" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>560</v>
+        <v>376</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.45">
@@ -2102,77 +2102,77 @@
       </c>
       <c r="C75" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>543</v>
+        <v>690</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A76">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B76" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Surfing</v>
+        <v>Swimming</v>
       </c>
       <c r="C76" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>442</v>
+        <v>607</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A77">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B77" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Skiing</v>
+        <v>Surfing</v>
       </c>
       <c r="C77" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>637</v>
+        <v>378</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A78">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B78" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Skiing</v>
+        <v>Swimming</v>
       </c>
       <c r="C78" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>323</v>
+        <v>200</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A79">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B79" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Windsurfing</v>
+        <v>Surfing</v>
       </c>
       <c r="C79" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>608</v>
+        <v>202</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A80">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B80" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Swimming</v>
+        <v>Windsurfing</v>
       </c>
       <c r="C80" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>694</v>
+        <v>289</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.45">
@@ -2186,7 +2186,7 @@
       </c>
       <c r="C81" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>560</v>
+        <v>252</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.45">
@@ -2200,35 +2200,35 @@
       </c>
       <c r="C82" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>434</v>
+        <v>321</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A83">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B83" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Surfing</v>
+        <v>Windsurfing</v>
       </c>
       <c r="C83" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>516</v>
+        <v>107</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A84">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B84" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Swimming</v>
+        <v>Windsurfing</v>
       </c>
       <c r="C84" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>221</v>
+        <v>571</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.45">
@@ -2242,7 +2242,7 @@
       </c>
       <c r="C85" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>602</v>
+        <v>260</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.45">
@@ -2256,7 +2256,7 @@
       </c>
       <c r="C86" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>570</v>
+        <v>681</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.45">
@@ -2270,91 +2270,91 @@
       </c>
       <c r="C87" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>556</v>
+        <v>168</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A88">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B88" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Skateboarding</v>
+        <v>Swimming</v>
       </c>
       <c r="C88" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>231</v>
+        <v>191</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A89">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B89" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Skiing</v>
+        <v>Windsurfing</v>
       </c>
       <c r="C89" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>420</v>
+        <v>312</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A90">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B90" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Swimming</v>
+        <v>Skateboarding</v>
       </c>
       <c r="C90" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>425</v>
+        <v>680</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A91">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B91" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Skateboarding</v>
+        <v>Windsurfing</v>
       </c>
       <c r="C91" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>445</v>
+        <v>344</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A92">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B92" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Skiing</v>
+        <v>Swimming</v>
       </c>
       <c r="C92" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>639</v>
+        <v>491</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A93">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B93" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Swimming</v>
+        <v>Skateboarding</v>
       </c>
       <c r="C93" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>468</v>
+        <v>506</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.45">
@@ -2368,7 +2368,7 @@
       </c>
       <c r="C94" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>313</v>
+        <v>615</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.45">
@@ -2382,21 +2382,21 @@
       </c>
       <c r="C95" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>560</v>
+        <v>224</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A96">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B96" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Skiing</v>
+        <v>Surfing</v>
       </c>
       <c r="C96" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>597</v>
+        <v>581</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.45">
@@ -2410,7 +2410,7 @@
       </c>
       <c r="C97" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>643</v>
+        <v>591</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.45">
@@ -2424,49 +2424,49 @@
       </c>
       <c r="C98" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>113</v>
+        <v>341</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A99">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B99" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Skiing</v>
+        <v>Windsurfing</v>
       </c>
       <c r="C99" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>577</v>
+        <v>592</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A100">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B100" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Skiing</v>
+        <v>Skateboarding</v>
       </c>
       <c r="C100" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>457</v>
+        <v>408</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A101">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B101" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Skateboarding</v>
+        <v>Surfing</v>
       </c>
       <c r="C101" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>333</v>
+        <v>425</v>
       </c>
     </row>
   </sheetData>
@@ -5081,7 +5081,7 @@
   <dimension ref="A1:J53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
